--- a/Financials/Yearly/JSAIY_YR_FIN.xlsx
+++ b/Financials/Yearly/JSAIY_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9E3ACD-44D6-49C5-B911-F705F5306969}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JSAIY" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,32 +689,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -706,88 +741,88 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>37470600</v>
+        <v>37115400</v>
       </c>
       <c r="E8" s="3">
-        <v>34531500</v>
+        <v>34204200</v>
       </c>
       <c r="F8" s="3">
-        <v>30952500</v>
+        <v>30659100</v>
       </c>
       <c r="G8" s="3">
-        <v>31306700</v>
+        <v>31010000</v>
       </c>
       <c r="H8" s="3">
-        <v>31535800</v>
+        <v>31236900</v>
       </c>
       <c r="I8" s="3">
-        <v>30685200</v>
+        <v>30394300</v>
       </c>
       <c r="J8" s="3">
-        <v>29356500</v>
+        <v>29078300</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>34992400</v>
+        <v>34660700</v>
       </c>
       <c r="E9" s="3">
-        <v>32379900</v>
+        <v>32073000</v>
       </c>
       <c r="F9" s="3">
-        <v>29035200</v>
+        <v>28760000</v>
       </c>
       <c r="G9" s="3">
-        <v>29716000</v>
+        <v>29434400</v>
       </c>
       <c r="H9" s="3">
-        <v>29709400</v>
+        <v>29427800</v>
       </c>
       <c r="I9" s="3">
-        <v>29003600</v>
+        <v>28728700</v>
       </c>
       <c r="J9" s="3">
-        <v>27761900</v>
+        <v>27498800</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2478200</v>
+        <v>2454700</v>
       </c>
       <c r="E10" s="3">
-        <v>2151600</v>
+        <v>2131200</v>
       </c>
       <c r="F10" s="3">
-        <v>1917200</v>
+        <v>1899100</v>
       </c>
       <c r="G10" s="3">
-        <v>1590700</v>
+        <v>1575600</v>
       </c>
       <c r="H10" s="3">
-        <v>1826400</v>
+        <v>1809100</v>
       </c>
       <c r="I10" s="3">
-        <v>1681500</v>
+        <v>1665600</v>
       </c>
       <c r="J10" s="3">
-        <v>1594600</v>
+        <v>1579500</v>
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -800,7 +835,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,7 +862,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -854,7 +889,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -862,7 +897,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>-129000</v>
+        <v>-127800</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -881,7 +916,7 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -908,7 +943,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,61 +953,61 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>36788500</v>
+        <v>36439800</v>
       </c>
       <c r="E17" s="3">
-        <v>33686100</v>
+        <v>33366900</v>
       </c>
       <c r="F17" s="3">
-        <v>30021500</v>
+        <v>29737000</v>
       </c>
       <c r="G17" s="3">
-        <v>31200000</v>
+        <v>30904300</v>
       </c>
       <c r="H17" s="3">
-        <v>30207200</v>
+        <v>29920900</v>
       </c>
       <c r="I17" s="3">
-        <v>29523700</v>
+        <v>29243900</v>
       </c>
       <c r="J17" s="3">
-        <v>28205600</v>
+        <v>27938300</v>
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>682100</v>
+        <v>675600</v>
       </c>
       <c r="E18" s="3">
-        <v>845400</v>
+        <v>837400</v>
       </c>
       <c r="F18" s="3">
-        <v>931000</v>
+        <v>922100</v>
       </c>
       <c r="G18" s="3">
-        <v>106700</v>
+        <v>105600</v>
       </c>
       <c r="H18" s="3">
-        <v>1328600</v>
+        <v>1316000</v>
       </c>
       <c r="I18" s="3">
-        <v>1161400</v>
+        <v>1150400</v>
       </c>
       <c r="J18" s="3">
-        <v>1150900</v>
+        <v>1140000</v>
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,7 +1020,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -993,134 +1028,134 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>-32900</v>
+        <v>-32600</v>
       </c>
       <c r="F20" s="3">
-        <v>-51400</v>
+        <v>-50900</v>
       </c>
       <c r="G20" s="3">
-        <v>-39500</v>
+        <v>-39100</v>
       </c>
       <c r="H20" s="3">
-        <v>23700</v>
+        <v>23500</v>
       </c>
       <c r="I20" s="3">
-        <v>23700</v>
+        <v>23500</v>
       </c>
       <c r="J20" s="3">
-        <v>64500</v>
+        <v>63900</v>
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1641100</v>
+        <v>1639700</v>
       </c>
       <c r="E21" s="3">
-        <v>1636300</v>
+        <v>1633000</v>
       </c>
       <c r="F21" s="3">
-        <v>1645800</v>
+        <v>1641500</v>
       </c>
       <c r="G21" s="3">
-        <v>826800</v>
+        <v>830200</v>
       </c>
       <c r="H21" s="3">
-        <v>2075200</v>
+        <v>2066200</v>
       </c>
       <c r="I21" s="3">
-        <v>1863400</v>
+        <v>1855800</v>
       </c>
       <c r="J21" s="3">
-        <v>1870000</v>
+        <v>1862000</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>143500</v>
+        <v>142200</v>
       </c>
       <c r="E22" s="3">
-        <v>150100</v>
+        <v>148700</v>
       </c>
       <c r="F22" s="3">
-        <v>158000</v>
+        <v>156500</v>
       </c>
       <c r="G22" s="3">
-        <v>162000</v>
+        <v>160400</v>
       </c>
       <c r="H22" s="3">
-        <v>169900</v>
+        <v>168300</v>
       </c>
       <c r="I22" s="3">
-        <v>168500</v>
+        <v>167000</v>
       </c>
       <c r="J22" s="3">
-        <v>163300</v>
+        <v>161700</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>538600</v>
+        <v>533500</v>
       </c>
       <c r="E23" s="3">
-        <v>662300</v>
+        <v>656100</v>
       </c>
       <c r="F23" s="3">
-        <v>721600</v>
+        <v>714800</v>
       </c>
       <c r="G23" s="3">
-        <v>-94800</v>
+        <v>-93900</v>
       </c>
       <c r="H23" s="3">
-        <v>1182500</v>
+        <v>1171300</v>
       </c>
       <c r="I23" s="3">
-        <v>1016600</v>
+        <v>1006900</v>
       </c>
       <c r="J23" s="3">
-        <v>1052100</v>
+        <v>1042100</v>
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>131700</v>
+        <v>130400</v>
       </c>
       <c r="E24" s="3">
-        <v>165900</v>
+        <v>164300</v>
       </c>
       <c r="F24" s="3">
-        <v>101400</v>
+        <v>100400</v>
       </c>
       <c r="G24" s="3">
-        <v>123800</v>
+        <v>122600</v>
       </c>
       <c r="H24" s="3">
-        <v>239700</v>
+        <v>237400</v>
       </c>
       <c r="I24" s="3">
-        <v>223900</v>
+        <v>221700</v>
       </c>
       <c r="J24" s="3">
-        <v>264700</v>
+        <v>262200</v>
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1147,61 +1182,61 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>406900</v>
+        <v>403000</v>
       </c>
       <c r="E26" s="3">
-        <v>496400</v>
+        <v>491700</v>
       </c>
       <c r="F26" s="3">
-        <v>620200</v>
+        <v>614300</v>
       </c>
       <c r="G26" s="3">
-        <v>-218600</v>
+        <v>-216500</v>
       </c>
       <c r="H26" s="3">
-        <v>942800</v>
+        <v>933900</v>
       </c>
       <c r="I26" s="3">
-        <v>792700</v>
+        <v>785200</v>
       </c>
       <c r="J26" s="3">
-        <v>787400</v>
+        <v>780000</v>
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>383200</v>
+        <v>379600</v>
       </c>
       <c r="E27" s="3">
-        <v>472700</v>
+        <v>468200</v>
       </c>
       <c r="F27" s="3">
-        <v>604400</v>
+        <v>598700</v>
       </c>
       <c r="G27" s="3">
-        <v>-218600</v>
+        <v>-216500</v>
       </c>
       <c r="H27" s="3">
-        <v>942800</v>
+        <v>933900</v>
       </c>
       <c r="I27" s="3">
-        <v>792700</v>
+        <v>785200</v>
       </c>
       <c r="J27" s="3">
-        <v>787400</v>
+        <v>780000</v>
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1228,7 +1263,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +1290,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1282,7 +1317,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1309,7 +1344,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1317,53 +1352,53 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>32900</v>
+        <v>32600</v>
       </c>
       <c r="F32" s="3">
-        <v>51400</v>
+        <v>50900</v>
       </c>
       <c r="G32" s="3">
-        <v>39500</v>
+        <v>39100</v>
       </c>
       <c r="H32" s="3">
-        <v>-23700</v>
+        <v>-23500</v>
       </c>
       <c r="I32" s="3">
-        <v>-23700</v>
+        <v>-23500</v>
       </c>
       <c r="J32" s="3">
-        <v>-64500</v>
+        <v>-63900</v>
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>383200</v>
+        <v>379600</v>
       </c>
       <c r="E33" s="3">
-        <v>472700</v>
+        <v>468200</v>
       </c>
       <c r="F33" s="3">
-        <v>604400</v>
+        <v>598700</v>
       </c>
       <c r="G33" s="3">
-        <v>-218600</v>
+        <v>-216500</v>
       </c>
       <c r="H33" s="3">
-        <v>942800</v>
+        <v>933900</v>
       </c>
       <c r="I33" s="3">
-        <v>792700</v>
+        <v>785200</v>
       </c>
       <c r="J33" s="3">
-        <v>787400</v>
+        <v>780000</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1390,39 +1425,39 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>383200</v>
+        <v>379600</v>
       </c>
       <c r="E35" s="3">
-        <v>472700</v>
+        <v>468200</v>
       </c>
       <c r="F35" s="3">
-        <v>604400</v>
+        <v>598700</v>
       </c>
       <c r="G35" s="3">
-        <v>-218600</v>
+        <v>-216500</v>
       </c>
       <c r="H35" s="3">
-        <v>942800</v>
+        <v>933900</v>
       </c>
       <c r="I35" s="3">
-        <v>792700</v>
+        <v>785200</v>
       </c>
       <c r="J35" s="3">
-        <v>787400</v>
+        <v>780000</v>
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1449,7 +1484,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,7 +1497,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,45 +1510,45 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1378700</v>
+        <v>1365600</v>
       </c>
       <c r="E41" s="3">
-        <v>1108700</v>
+        <v>1098200</v>
       </c>
       <c r="F41" s="3">
-        <v>1124500</v>
+        <v>1113900</v>
       </c>
       <c r="G41" s="3">
-        <v>1692100</v>
+        <v>1676000</v>
       </c>
       <c r="H41" s="3">
-        <v>2096300</v>
+        <v>2076500</v>
       </c>
       <c r="I41" s="3">
-        <v>680800</v>
+        <v>674300</v>
       </c>
       <c r="J41" s="3">
-        <v>973100</v>
+        <v>963900</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1166700</v>
+        <v>1155600</v>
       </c>
       <c r="E42" s="3">
-        <v>449000</v>
+        <v>444800</v>
       </c>
       <c r="F42" s="3">
-        <v>443800</v>
+        <v>439600</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -1529,196 +1564,196 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5197400</v>
+        <v>5148100</v>
       </c>
       <c r="E43" s="3">
-        <v>8380100</v>
+        <v>8300600</v>
       </c>
       <c r="F43" s="3">
-        <v>2760000</v>
+        <v>2733800</v>
       </c>
       <c r="G43" s="3">
-        <v>2595400</v>
+        <v>2570800</v>
       </c>
       <c r="H43" s="3">
-        <v>2179300</v>
+        <v>2158600</v>
       </c>
       <c r="I43" s="3">
-        <v>742700</v>
+        <v>735600</v>
       </c>
       <c r="J43" s="3">
-        <v>528000</v>
+        <v>523000</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2383400</v>
+        <v>2360800</v>
       </c>
       <c r="E44" s="3">
-        <v>4674600</v>
+        <v>4630300</v>
       </c>
       <c r="F44" s="3">
-        <v>1274700</v>
+        <v>1262600</v>
       </c>
       <c r="G44" s="3">
-        <v>1312800</v>
+        <v>1300400</v>
       </c>
       <c r="H44" s="3">
-        <v>1323400</v>
+        <v>1310800</v>
       </c>
       <c r="I44" s="3">
-        <v>2599300</v>
+        <v>2574700</v>
       </c>
       <c r="J44" s="3">
-        <v>2470300</v>
+        <v>2446900</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>219900</v>
+        <v>217800</v>
       </c>
       <c r="E45" s="3">
-        <v>329200</v>
+        <v>326100</v>
       </c>
       <c r="F45" s="3">
-        <v>208100</v>
+        <v>206100</v>
       </c>
       <c r="G45" s="3">
-        <v>221200</v>
+        <v>219100</v>
       </c>
       <c r="H45" s="3">
-        <v>144800</v>
+        <v>143500</v>
       </c>
       <c r="I45" s="3">
-        <v>200200</v>
+        <v>198300</v>
       </c>
       <c r="J45" s="3">
-        <v>171200</v>
+        <v>169600</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10346000</v>
+        <v>10248000</v>
       </c>
       <c r="E46" s="3">
-        <v>8311600</v>
+        <v>8232800</v>
       </c>
       <c r="F46" s="3">
-        <v>5811000</v>
+        <v>5755900</v>
       </c>
       <c r="G46" s="3">
-        <v>5821500</v>
+        <v>5766400</v>
       </c>
       <c r="H46" s="3">
-        <v>5743800</v>
+        <v>5689400</v>
       </c>
       <c r="I46" s="3">
-        <v>2503200</v>
+        <v>2479500</v>
       </c>
       <c r="J46" s="3">
-        <v>2675700</v>
+        <v>2650400</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4133400</v>
+        <v>4094200</v>
       </c>
       <c r="E47" s="3">
-        <v>6099400</v>
+        <v>6041600</v>
       </c>
       <c r="F47" s="3">
-        <v>3170800</v>
+        <v>3140800</v>
       </c>
       <c r="G47" s="3">
-        <v>2683600</v>
+        <v>2658200</v>
       </c>
       <c r="H47" s="3">
-        <v>2603300</v>
+        <v>2578600</v>
       </c>
       <c r="I47" s="3">
-        <v>999400</v>
+        <v>990000</v>
       </c>
       <c r="J47" s="3">
-        <v>1029700</v>
+        <v>1020000</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>13033600</v>
+        <v>12910100</v>
       </c>
       <c r="E48" s="3">
-        <v>26351600</v>
+        <v>26101900</v>
       </c>
       <c r="F48" s="3">
-        <v>12857100</v>
+        <v>12735300</v>
       </c>
       <c r="G48" s="3">
-        <v>12704400</v>
+        <v>12584000</v>
       </c>
       <c r="H48" s="3">
-        <v>13009900</v>
+        <v>12886600</v>
       </c>
       <c r="I48" s="3">
-        <v>19013100</v>
+        <v>18832900</v>
       </c>
       <c r="J48" s="3">
-        <v>24568700</v>
+        <v>24335800</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1411600</v>
+        <v>1398200</v>
       </c>
       <c r="E49" s="3">
-        <v>2034400</v>
+        <v>2015200</v>
       </c>
       <c r="F49" s="3">
-        <v>433200</v>
+        <v>429100</v>
       </c>
       <c r="G49" s="3">
-        <v>428000</v>
+        <v>423900</v>
       </c>
       <c r="H49" s="3">
-        <v>376600</v>
+        <v>373000</v>
       </c>
       <c r="I49" s="3">
-        <v>428000</v>
+        <v>423900</v>
       </c>
       <c r="J49" s="3">
-        <v>421400</v>
+        <v>417400</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1745,7 +1780,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1772,34 +1807,34 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>46100</v>
+        <v>45700</v>
       </c>
       <c r="E52" s="3">
-        <v>39500</v>
+        <v>39100</v>
       </c>
       <c r="F52" s="3">
-        <v>77700</v>
+        <v>77000</v>
       </c>
       <c r="G52" s="3">
-        <v>138300</v>
+        <v>137000</v>
       </c>
       <c r="H52" s="3">
-        <v>46100</v>
+        <v>45700</v>
       </c>
       <c r="I52" s="3">
-        <v>79000</v>
+        <v>78300</v>
       </c>
       <c r="J52" s="3">
-        <v>48700</v>
+        <v>48300</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1826,34 +1861,34 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28970700</v>
+        <v>28696100</v>
       </c>
       <c r="E54" s="3">
-        <v>26069800</v>
+        <v>25822700</v>
       </c>
       <c r="F54" s="3">
-        <v>22349900</v>
+        <v>22138100</v>
       </c>
       <c r="G54" s="3">
-        <v>21775800</v>
+        <v>21569400</v>
       </c>
       <c r="H54" s="3">
-        <v>21779700</v>
+        <v>21573300</v>
       </c>
       <c r="I54" s="3">
-        <v>16716600</v>
+        <v>16558200</v>
       </c>
       <c r="J54" s="3">
-        <v>16249200</v>
+        <v>16095200</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,7 +1901,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,169 +1914,169 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3755500</v>
+        <v>3719900</v>
       </c>
       <c r="E57" s="3">
-        <v>14102800</v>
+        <v>13969200</v>
       </c>
       <c r="F57" s="3">
-        <v>2741600</v>
+        <v>2715600</v>
       </c>
       <c r="G57" s="3">
-        <v>7221300</v>
+        <v>2724700</v>
       </c>
       <c r="H57" s="3">
-        <v>6703800</v>
+        <v>2407800</v>
       </c>
       <c r="I57" s="3">
-        <v>6102000</v>
+        <v>6044200</v>
       </c>
       <c r="J57" s="3">
-        <v>3608000</v>
+        <v>3573800</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1004700</v>
+        <v>995200</v>
       </c>
       <c r="E58" s="3">
-        <v>612300</v>
+        <v>606500</v>
       </c>
       <c r="F58" s="3">
-        <v>449000</v>
+        <v>444800</v>
       </c>
       <c r="G58" s="3">
-        <v>342400</v>
+        <v>430400</v>
       </c>
       <c r="H58" s="3">
-        <v>703200</v>
+        <v>696500</v>
       </c>
       <c r="I58" s="3">
-        <v>244900</v>
+        <v>242600</v>
       </c>
       <c r="J58" s="3">
-        <v>395000</v>
+        <v>391300</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8805400</v>
+        <v>8721900</v>
       </c>
       <c r="E59" s="3">
-        <v>7384600</v>
+        <v>7314600</v>
       </c>
       <c r="F59" s="3">
-        <v>5658200</v>
+        <v>5604600</v>
       </c>
       <c r="G59" s="3">
-        <v>1552500</v>
+        <v>5874600</v>
       </c>
       <c r="H59" s="3">
-        <v>1501100</v>
+        <v>5719400</v>
       </c>
       <c r="I59" s="3">
-        <v>1372100</v>
+        <v>1359100</v>
       </c>
       <c r="J59" s="3">
-        <v>1426100</v>
+        <v>1412600</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13565600</v>
+        <v>13437000</v>
       </c>
       <c r="E60" s="3">
-        <v>11306000</v>
+        <v>11198800</v>
       </c>
       <c r="F60" s="3">
-        <v>8848800</v>
+        <v>8765000</v>
       </c>
       <c r="G60" s="3">
-        <v>9116100</v>
+        <v>9029700</v>
       </c>
       <c r="H60" s="3">
-        <v>8908100</v>
+        <v>8823700</v>
       </c>
       <c r="I60" s="3">
-        <v>4101800</v>
+        <v>4062900</v>
       </c>
       <c r="J60" s="3">
-        <v>4129500</v>
+        <v>4090300</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2355700</v>
+        <v>2333400</v>
       </c>
       <c r="E61" s="3">
-        <v>2684900</v>
+        <v>2659500</v>
       </c>
       <c r="F61" s="3">
-        <v>3122100</v>
+        <v>3092500</v>
       </c>
       <c r="G61" s="3">
-        <v>3299900</v>
+        <v>3370300</v>
       </c>
       <c r="H61" s="3">
-        <v>2962800</v>
+        <v>2934700</v>
       </c>
       <c r="I61" s="3">
-        <v>3446000</v>
+        <v>3413400</v>
       </c>
       <c r="J61" s="3">
-        <v>3446000</v>
+        <v>3413400</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3290700</v>
+        <v>3259500</v>
       </c>
       <c r="E62" s="3">
-        <v>4018800</v>
+        <v>3980800</v>
       </c>
       <c r="F62" s="3">
-        <v>1992300</v>
+        <v>1973400</v>
       </c>
       <c r="G62" s="3">
-        <v>2066000</v>
+        <v>1944700</v>
       </c>
       <c r="H62" s="3">
-        <v>2001500</v>
+        <v>1982600</v>
       </c>
       <c r="I62" s="3">
-        <v>1709200</v>
+        <v>1693000</v>
       </c>
       <c r="J62" s="3">
-        <v>1140300</v>
+        <v>1129500</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2068,7 +2103,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2095,7 +2130,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2122,34 +2157,34 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19212000</v>
+        <v>19029900</v>
       </c>
       <c r="E66" s="3">
-        <v>17020800</v>
+        <v>16859500</v>
       </c>
       <c r="F66" s="3">
-        <v>13968500</v>
+        <v>13836100</v>
       </c>
       <c r="G66" s="3">
-        <v>14482100</v>
+        <v>14344800</v>
       </c>
       <c r="H66" s="3">
-        <v>13875000</v>
+        <v>13743500</v>
       </c>
       <c r="I66" s="3">
-        <v>9030500</v>
+        <v>8945000</v>
       </c>
       <c r="J66" s="3">
-        <v>8715800</v>
+        <v>8633200</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,7 +2197,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2189,7 +2224,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2216,7 +2251,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2243,7 +2278,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2270,34 +2305,34 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6649800</v>
+        <v>6586800</v>
       </c>
       <c r="E72" s="3">
-        <v>6125700</v>
+        <v>6067700</v>
       </c>
       <c r="F72" s="3">
-        <v>5371200</v>
+        <v>5320300</v>
       </c>
       <c r="G72" s="3">
-        <v>4968200</v>
+        <v>4921200</v>
       </c>
       <c r="H72" s="3">
-        <v>5585800</v>
+        <v>5532900</v>
       </c>
       <c r="I72" s="3">
-        <v>4562700</v>
+        <v>4519400</v>
       </c>
       <c r="J72" s="3">
-        <v>4816800</v>
+        <v>4771200</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2324,7 +2359,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2351,7 +2386,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2378,34 +2413,34 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9758700</v>
+        <v>9666200</v>
       </c>
       <c r="E76" s="3">
-        <v>9049000</v>
+        <v>8963200</v>
       </c>
       <c r="F76" s="3">
-        <v>8381400</v>
+        <v>8301900</v>
       </c>
       <c r="G76" s="3">
-        <v>7293700</v>
+        <v>7224600</v>
       </c>
       <c r="H76" s="3">
-        <v>7904700</v>
+        <v>7829800</v>
       </c>
       <c r="I76" s="3">
-        <v>7686100</v>
+        <v>7613300</v>
       </c>
       <c r="J76" s="3">
-        <v>7533400</v>
+        <v>7462000</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2432,12 +2467,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2464,34 +2499,34 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>383200</v>
+        <v>379600</v>
       </c>
       <c r="E81" s="3">
-        <v>472700</v>
+        <v>468200</v>
       </c>
       <c r="F81" s="3">
-        <v>604400</v>
+        <v>598700</v>
       </c>
       <c r="G81" s="3">
-        <v>-218600</v>
+        <v>-216500</v>
       </c>
       <c r="H81" s="3">
-        <v>942800</v>
+        <v>933900</v>
       </c>
       <c r="I81" s="3">
-        <v>792700</v>
+        <v>785200</v>
       </c>
       <c r="J81" s="3">
-        <v>787400</v>
+        <v>780000</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,34 +2539,34 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>962600</v>
+        <v>953500</v>
       </c>
       <c r="E83" s="3">
-        <v>826900</v>
+        <v>819100</v>
       </c>
       <c r="F83" s="3">
-        <v>769000</v>
+        <v>761700</v>
       </c>
       <c r="G83" s="3">
-        <v>762400</v>
+        <v>755200</v>
       </c>
       <c r="H83" s="3">
-        <v>725600</v>
+        <v>718700</v>
       </c>
       <c r="I83" s="3">
-        <v>680800</v>
+        <v>674300</v>
       </c>
       <c r="J83" s="3">
-        <v>657100</v>
+        <v>650900</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2558,7 +2593,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2585,7 +2620,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2612,7 +2647,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2639,7 +2674,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2666,34 +2701,34 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1797400</v>
+        <v>1780400</v>
       </c>
       <c r="E89" s="3">
-        <v>1518300</v>
+        <v>1503900</v>
       </c>
       <c r="F89" s="3">
-        <v>516200</v>
+        <v>511300</v>
       </c>
       <c r="G89" s="3">
-        <v>1199600</v>
+        <v>1188200</v>
       </c>
       <c r="H89" s="3">
-        <v>1236500</v>
+        <v>1224700</v>
       </c>
       <c r="I89" s="3">
-        <v>1291800</v>
+        <v>1279500</v>
       </c>
       <c r="J89" s="3">
-        <v>1405000</v>
+        <v>1391700</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,34 +2741,34 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-923100</v>
+        <v>-731700</v>
       </c>
       <c r="E91" s="3">
-        <v>-979700</v>
+        <v>-826900</v>
       </c>
       <c r="F91" s="3">
-        <v>-895400</v>
+        <v>-842600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1355000</v>
+        <v>-1240400</v>
       </c>
       <c r="H91" s="3">
-        <v>-1223300</v>
+        <v>-1194700</v>
       </c>
       <c r="I91" s="3">
-        <v>-1439300</v>
+        <v>-1391700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1648600</v>
+        <v>-1600400</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2760,7 +2795,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2787,34 +2822,34 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-618900</v>
+        <v>-613000</v>
       </c>
       <c r="E94" s="3">
-        <v>-987600</v>
+        <v>-978200</v>
       </c>
       <c r="F94" s="3">
-        <v>-526700</v>
+        <v>-521700</v>
       </c>
       <c r="G94" s="3">
-        <v>-1185100</v>
+        <v>-1173900</v>
       </c>
       <c r="H94" s="3">
-        <v>561000</v>
+        <v>555600</v>
       </c>
       <c r="I94" s="3">
-        <v>-1135100</v>
+        <v>-1124300</v>
       </c>
       <c r="J94" s="3">
-        <v>-1162700</v>
+        <v>-1151700</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,34 +2862,34 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-309400</v>
+        <v>-306500</v>
       </c>
       <c r="E96" s="3">
-        <v>-333100</v>
+        <v>-330000</v>
       </c>
       <c r="F96" s="3">
-        <v>-313400</v>
+        <v>-310400</v>
       </c>
       <c r="G96" s="3">
-        <v>-434500</v>
+        <v>-430400</v>
       </c>
       <c r="H96" s="3">
-        <v>-421400</v>
+        <v>-417400</v>
       </c>
       <c r="I96" s="3">
-        <v>-405600</v>
+        <v>-401700</v>
       </c>
       <c r="J96" s="3">
-        <v>-375300</v>
+        <v>-371700</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2881,7 +2916,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2908,7 +2943,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2935,34 +2970,34 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-321300</v>
+        <v>-318300</v>
       </c>
       <c r="E100" s="3">
-        <v>-613600</v>
+        <v>-607800</v>
       </c>
       <c r="F100" s="3">
-        <v>-168500</v>
+        <v>-167000</v>
       </c>
       <c r="G100" s="3">
-        <v>-413500</v>
+        <v>-409600</v>
       </c>
       <c r="H100" s="3">
-        <v>-381900</v>
+        <v>-378200</v>
       </c>
       <c r="I100" s="3">
-        <v>-466100</v>
+        <v>-461700</v>
       </c>
       <c r="J100" s="3">
-        <v>72400</v>
+        <v>71700</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2989,30 +3024,30 @@
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>857200</v>
+        <v>849100</v>
       </c>
       <c r="E102" s="3">
-        <v>-83000</v>
+        <v>-82200</v>
       </c>
       <c r="F102" s="3">
-        <v>-179100</v>
+        <v>-177400</v>
       </c>
       <c r="G102" s="3">
-        <v>-399000</v>
+        <v>-395200</v>
       </c>
       <c r="H102" s="3">
-        <v>1415500</v>
+        <v>1402100</v>
       </c>
       <c r="I102" s="3">
-        <v>-309400</v>
+        <v>-306500</v>
       </c>
       <c r="J102" s="3">
-        <v>314700</v>
+        <v>311700</v>
       </c>
       <c r="K102" s="3"/>
     </row>

--- a/Financials/Yearly/JSAIY_YR_FIN.xlsx
+++ b/Financials/Yearly/JSAIY_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9E3ACD-44D6-49C5-B911-F705F5306969}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="JSAIY" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="92">
   <si>
     <t>JSAIY</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,140 +654,153 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43533</v>
+      </c>
+      <c r="E7" s="2">
         <v>43169</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42805</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42441</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42077</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>41713</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41349</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>40985</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>37115400</v>
+        <v>37500500</v>
       </c>
       <c r="E8" s="3">
-        <v>34204200</v>
+        <v>36788200</v>
       </c>
       <c r="F8" s="3">
-        <v>30659100</v>
+        <v>33902600</v>
       </c>
       <c r="G8" s="3">
-        <v>31010000</v>
+        <v>30388800</v>
       </c>
       <c r="H8" s="3">
-        <v>31236900</v>
+        <v>30736600</v>
       </c>
       <c r="I8" s="3">
-        <v>30394300</v>
+        <v>30961500</v>
       </c>
       <c r="J8" s="3">
+        <v>30126400</v>
+      </c>
+      <c r="K8" s="3">
         <v>29078300</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>34660700</v>
+        <v>34542600</v>
       </c>
       <c r="E9" s="3">
-        <v>32073000</v>
+        <v>34355100</v>
       </c>
       <c r="F9" s="3">
-        <v>28760000</v>
+        <v>31790200</v>
       </c>
       <c r="G9" s="3">
-        <v>29434400</v>
+        <v>28506500</v>
       </c>
       <c r="H9" s="3">
-        <v>29427800</v>
+        <v>29174800</v>
       </c>
       <c r="I9" s="3">
-        <v>28728700</v>
+        <v>29168400</v>
       </c>
       <c r="J9" s="3">
+        <v>28475400</v>
+      </c>
+      <c r="K9" s="3">
         <v>27498800</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2454700</v>
+        <v>2957900</v>
       </c>
       <c r="E10" s="3">
-        <v>2131200</v>
+        <v>2433100</v>
       </c>
       <c r="F10" s="3">
-        <v>1899100</v>
+        <v>2112500</v>
       </c>
       <c r="G10" s="3">
-        <v>1575600</v>
+        <v>1882300</v>
       </c>
       <c r="H10" s="3">
-        <v>1809100</v>
+        <v>1561700</v>
       </c>
       <c r="I10" s="3">
-        <v>1665600</v>
+        <v>1793100</v>
       </c>
       <c r="J10" s="3">
+        <v>1650900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1579500</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -860,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,20 +869,23 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>-127800</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>-126700</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -914,9 +899,12 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -941,9 +929,12 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -952,62 +943,69 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>36439800</v>
+        <v>36735200</v>
       </c>
       <c r="E17" s="3">
-        <v>33366900</v>
+        <v>36118500</v>
       </c>
       <c r="F17" s="3">
-        <v>29737000</v>
+        <v>33072700</v>
       </c>
       <c r="G17" s="3">
-        <v>30904300</v>
+        <v>29474800</v>
       </c>
       <c r="H17" s="3">
-        <v>29920900</v>
+        <v>30631800</v>
       </c>
       <c r="I17" s="3">
-        <v>29243900</v>
+        <v>29657100</v>
       </c>
       <c r="J17" s="3">
+        <v>28986100</v>
+      </c>
+      <c r="K17" s="3">
         <v>27938300</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>675600</v>
+        <v>765300</v>
       </c>
       <c r="E18" s="3">
-        <v>837400</v>
+        <v>669700</v>
       </c>
       <c r="F18" s="3">
-        <v>922100</v>
+        <v>830000</v>
       </c>
       <c r="G18" s="3">
-        <v>105600</v>
+        <v>914000</v>
       </c>
       <c r="H18" s="3">
-        <v>1316000</v>
+        <v>104700</v>
       </c>
       <c r="I18" s="3">
-        <v>1150400</v>
+        <v>1304400</v>
       </c>
       <c r="J18" s="3">
+        <v>1140300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1140000</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,143 +1017,159 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>34900</v>
       </c>
       <c r="E20" s="3">
-        <v>-32600</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>-50900</v>
+        <v>-32300</v>
       </c>
       <c r="G20" s="3">
-        <v>-39100</v>
+        <v>-50400</v>
       </c>
       <c r="H20" s="3">
-        <v>23500</v>
+        <v>-38800</v>
       </c>
       <c r="I20" s="3">
-        <v>23500</v>
+        <v>23300</v>
       </c>
       <c r="J20" s="3">
+        <v>23300</v>
+      </c>
+      <c r="K20" s="3">
         <v>63900</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1639700</v>
+        <v>2440800</v>
       </c>
       <c r="E21" s="3">
-        <v>1633000</v>
+        <v>1620000</v>
       </c>
       <c r="F21" s="3">
-        <v>1641500</v>
+        <v>1614100</v>
       </c>
       <c r="G21" s="3">
-        <v>830200</v>
+        <v>1622800</v>
       </c>
       <c r="H21" s="3">
-        <v>2066200</v>
+        <v>818600</v>
       </c>
       <c r="I21" s="3">
-        <v>1855800</v>
+        <v>2044000</v>
       </c>
       <c r="J21" s="3">
+        <v>1835600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1862000</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>142200</v>
+        <v>539100</v>
       </c>
       <c r="E22" s="3">
-        <v>148700</v>
+        <v>140900</v>
       </c>
       <c r="F22" s="3">
-        <v>156500</v>
+        <v>147400</v>
       </c>
       <c r="G22" s="3">
-        <v>160400</v>
+        <v>155100</v>
       </c>
       <c r="H22" s="3">
-        <v>168300</v>
+        <v>159000</v>
       </c>
       <c r="I22" s="3">
-        <v>167000</v>
+        <v>166800</v>
       </c>
       <c r="J22" s="3">
+        <v>165500</v>
+      </c>
+      <c r="K22" s="3">
         <v>161700</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>533500</v>
+        <v>261100</v>
       </c>
       <c r="E23" s="3">
-        <v>656100</v>
+        <v>528800</v>
       </c>
       <c r="F23" s="3">
-        <v>714800</v>
+        <v>650300</v>
       </c>
       <c r="G23" s="3">
-        <v>-93900</v>
+        <v>708500</v>
       </c>
       <c r="H23" s="3">
-        <v>1171300</v>
+        <v>-93100</v>
       </c>
       <c r="I23" s="3">
-        <v>1006900</v>
+        <v>1160900</v>
       </c>
       <c r="J23" s="3">
+        <v>998000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1042100</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>130400</v>
+        <v>20700</v>
       </c>
       <c r="E24" s="3">
-        <v>164300</v>
+        <v>129300</v>
       </c>
       <c r="F24" s="3">
-        <v>100400</v>
+        <v>162900</v>
       </c>
       <c r="G24" s="3">
-        <v>122600</v>
+        <v>99500</v>
       </c>
       <c r="H24" s="3">
-        <v>237400</v>
+        <v>121500</v>
       </c>
       <c r="I24" s="3">
-        <v>221700</v>
+        <v>235300</v>
       </c>
       <c r="J24" s="3">
+        <v>219800</v>
+      </c>
+      <c r="K24" s="3">
         <v>262200</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,63 +1194,72 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>403000</v>
+        <v>240500</v>
       </c>
       <c r="E26" s="3">
-        <v>491700</v>
+        <v>399500</v>
       </c>
       <c r="F26" s="3">
-        <v>614300</v>
+        <v>487400</v>
       </c>
       <c r="G26" s="3">
-        <v>-216500</v>
+        <v>608900</v>
       </c>
       <c r="H26" s="3">
-        <v>933900</v>
+        <v>-214600</v>
       </c>
       <c r="I26" s="3">
-        <v>785200</v>
+        <v>925700</v>
       </c>
       <c r="J26" s="3">
+        <v>778300</v>
+      </c>
+      <c r="K26" s="3">
         <v>780000</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>379600</v>
+        <v>217200</v>
       </c>
       <c r="E27" s="3">
-        <v>468200</v>
+        <v>376200</v>
       </c>
       <c r="F27" s="3">
-        <v>598700</v>
+        <v>464100</v>
       </c>
       <c r="G27" s="3">
-        <v>-216500</v>
+        <v>593400</v>
       </c>
       <c r="H27" s="3">
-        <v>933900</v>
+        <v>-214600</v>
       </c>
       <c r="I27" s="3">
-        <v>785200</v>
+        <v>925700</v>
       </c>
       <c r="J27" s="3">
+        <v>778300</v>
+      </c>
+      <c r="K27" s="3">
         <v>780000</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1261,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1288,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1315,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1342,63 +1374,72 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-34900</v>
       </c>
       <c r="E32" s="3">
-        <v>32600</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>50900</v>
+        <v>32300</v>
       </c>
       <c r="G32" s="3">
-        <v>39100</v>
+        <v>50400</v>
       </c>
       <c r="H32" s="3">
-        <v>-23500</v>
+        <v>38800</v>
       </c>
       <c r="I32" s="3">
-        <v>-23500</v>
+        <v>-23300</v>
       </c>
       <c r="J32" s="3">
+        <v>-23300</v>
+      </c>
+      <c r="K32" s="3">
         <v>-63900</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>379600</v>
+        <v>217200</v>
       </c>
       <c r="E33" s="3">
-        <v>468200</v>
+        <v>376200</v>
       </c>
       <c r="F33" s="3">
-        <v>598700</v>
+        <v>464100</v>
       </c>
       <c r="G33" s="3">
-        <v>-216500</v>
+        <v>593400</v>
       </c>
       <c r="H33" s="3">
-        <v>933900</v>
+        <v>-214600</v>
       </c>
       <c r="I33" s="3">
-        <v>785200</v>
+        <v>925700</v>
       </c>
       <c r="J33" s="3">
+        <v>778300</v>
+      </c>
+      <c r="K33" s="3">
         <v>780000</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1423,68 +1464,77 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>379600</v>
+        <v>217200</v>
       </c>
       <c r="E35" s="3">
-        <v>468200</v>
+        <v>376200</v>
       </c>
       <c r="F35" s="3">
-        <v>598700</v>
+        <v>464100</v>
       </c>
       <c r="G35" s="3">
-        <v>-216500</v>
+        <v>593400</v>
       </c>
       <c r="H35" s="3">
-        <v>933900</v>
+        <v>-214600</v>
       </c>
       <c r="I35" s="3">
-        <v>785200</v>
+        <v>925700</v>
       </c>
       <c r="J35" s="3">
+        <v>778300</v>
+      </c>
+      <c r="K35" s="3">
         <v>780000</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43533</v>
+      </c>
+      <c r="E38" s="2">
         <v>43169</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42805</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42441</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42077</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>41713</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41349</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>40985</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1496,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1509,49 +1560,53 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1365600</v>
+        <v>1051100</v>
       </c>
       <c r="E41" s="3">
-        <v>1098200</v>
+        <v>1353600</v>
       </c>
       <c r="F41" s="3">
-        <v>1113900</v>
+        <v>1088500</v>
       </c>
       <c r="G41" s="3">
-        <v>1676000</v>
+        <v>1104100</v>
       </c>
       <c r="H41" s="3">
-        <v>2076500</v>
+        <v>1661300</v>
       </c>
       <c r="I41" s="3">
-        <v>674300</v>
+        <v>2058200</v>
       </c>
       <c r="J41" s="3">
+        <v>668400</v>
+      </c>
+      <c r="K41" s="3">
         <v>963900</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1155600</v>
+        <v>671000</v>
       </c>
       <c r="E42" s="3">
-        <v>444800</v>
+        <v>1145400</v>
       </c>
       <c r="F42" s="3">
-        <v>439600</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
+        <v>440800</v>
+      </c>
+      <c r="G42" s="3">
+        <v>435700</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -1562,198 +1617,222 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5148100</v>
+        <v>10823400</v>
       </c>
       <c r="E43" s="3">
-        <v>8300600</v>
+        <v>5102700</v>
       </c>
       <c r="F43" s="3">
-        <v>2733800</v>
+        <v>8227400</v>
       </c>
       <c r="G43" s="3">
-        <v>2570800</v>
+        <v>2709700</v>
       </c>
       <c r="H43" s="3">
-        <v>2158600</v>
+        <v>2548100</v>
       </c>
       <c r="I43" s="3">
-        <v>735600</v>
+        <v>2139600</v>
       </c>
       <c r="J43" s="3">
+        <v>729100</v>
+      </c>
+      <c r="K43" s="3">
         <v>523000</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2360800</v>
+        <v>4987700</v>
       </c>
       <c r="E44" s="3">
-        <v>4630300</v>
+        <v>2340000</v>
       </c>
       <c r="F44" s="3">
-        <v>1262600</v>
+        <v>4589500</v>
       </c>
       <c r="G44" s="3">
-        <v>1300400</v>
+        <v>1251400</v>
       </c>
       <c r="H44" s="3">
-        <v>1310800</v>
+        <v>1288900</v>
       </c>
       <c r="I44" s="3">
-        <v>2574700</v>
+        <v>1299300</v>
       </c>
       <c r="J44" s="3">
+        <v>2552000</v>
+      </c>
+      <c r="K44" s="3">
         <v>2446900</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>217800</v>
+        <v>279200</v>
       </c>
       <c r="E45" s="3">
-        <v>326100</v>
+        <v>215900</v>
       </c>
       <c r="F45" s="3">
-        <v>206100</v>
+        <v>323200</v>
       </c>
       <c r="G45" s="3">
-        <v>219100</v>
+        <v>204300</v>
       </c>
       <c r="H45" s="3">
-        <v>143500</v>
+        <v>217200</v>
       </c>
       <c r="I45" s="3">
-        <v>198300</v>
+        <v>142200</v>
       </c>
       <c r="J45" s="3">
+        <v>196500</v>
+      </c>
+      <c r="K45" s="3">
         <v>169600</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>10248000</v>
+        <v>9760700</v>
       </c>
       <c r="E46" s="3">
-        <v>8232800</v>
+        <v>10157600</v>
       </c>
       <c r="F46" s="3">
-        <v>5755900</v>
+        <v>8160200</v>
       </c>
       <c r="G46" s="3">
-        <v>5766400</v>
+        <v>5705200</v>
       </c>
       <c r="H46" s="3">
-        <v>5689400</v>
+        <v>5715500</v>
       </c>
       <c r="I46" s="3">
-        <v>2479500</v>
+        <v>5639200</v>
       </c>
       <c r="J46" s="3">
+        <v>2457600</v>
+      </c>
+      <c r="K46" s="3">
         <v>2650400</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4094200</v>
+        <v>9864100</v>
       </c>
       <c r="E47" s="3">
-        <v>6041600</v>
+        <v>4058100</v>
       </c>
       <c r="F47" s="3">
-        <v>3140800</v>
+        <v>5988300</v>
       </c>
       <c r="G47" s="3">
-        <v>2658200</v>
+        <v>3113100</v>
       </c>
       <c r="H47" s="3">
-        <v>2578600</v>
+        <v>2634700</v>
       </c>
       <c r="I47" s="3">
-        <v>990000</v>
+        <v>2555900</v>
       </c>
       <c r="J47" s="3">
+        <v>981200</v>
+      </c>
+      <c r="K47" s="3">
         <v>1020000</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>12910100</v>
+        <v>30890400</v>
       </c>
       <c r="E48" s="3">
-        <v>26101900</v>
+        <v>12796200</v>
       </c>
       <c r="F48" s="3">
-        <v>12735300</v>
+        <v>25871700</v>
       </c>
       <c r="G48" s="3">
-        <v>12584000</v>
+        <v>12623000</v>
       </c>
       <c r="H48" s="3">
-        <v>12886600</v>
+        <v>12473000</v>
       </c>
       <c r="I48" s="3">
-        <v>18832900</v>
+        <v>12773000</v>
       </c>
       <c r="J48" s="3">
+        <v>18666900</v>
+      </c>
+      <c r="K48" s="3">
         <v>24335800</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1398200</v>
+        <v>2698100</v>
       </c>
       <c r="E49" s="3">
-        <v>2015200</v>
+        <v>1385900</v>
       </c>
       <c r="F49" s="3">
-        <v>429100</v>
+        <v>1997400</v>
       </c>
       <c r="G49" s="3">
-        <v>423900</v>
+        <v>425300</v>
       </c>
       <c r="H49" s="3">
-        <v>373000</v>
+        <v>420200</v>
       </c>
       <c r="I49" s="3">
-        <v>423900</v>
+        <v>369700</v>
       </c>
       <c r="J49" s="3">
+        <v>420200</v>
+      </c>
+      <c r="K49" s="3">
         <v>417400</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1778,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1805,36 +1887,42 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>45700</v>
+        <v>1272100</v>
       </c>
       <c r="E52" s="3">
-        <v>39100</v>
+        <v>45200</v>
       </c>
       <c r="F52" s="3">
-        <v>77000</v>
+        <v>38800</v>
       </c>
       <c r="G52" s="3">
-        <v>137000</v>
+        <v>76300</v>
       </c>
       <c r="H52" s="3">
-        <v>45700</v>
+        <v>135700</v>
       </c>
       <c r="I52" s="3">
-        <v>78300</v>
+        <v>45200</v>
       </c>
       <c r="J52" s="3">
+        <v>77600</v>
+      </c>
+      <c r="K52" s="3">
         <v>48300</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1859,36 +1947,42 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>28696100</v>
+        <v>36212900</v>
       </c>
       <c r="E54" s="3">
-        <v>25822700</v>
+        <v>28443100</v>
       </c>
       <c r="F54" s="3">
-        <v>22138100</v>
+        <v>25595100</v>
       </c>
       <c r="G54" s="3">
-        <v>21569400</v>
+        <v>21942900</v>
       </c>
       <c r="H54" s="3">
-        <v>21573300</v>
+        <v>21379200</v>
       </c>
       <c r="I54" s="3">
-        <v>16558200</v>
+        <v>21383100</v>
       </c>
       <c r="J54" s="3">
+        <v>16412200</v>
+      </c>
+      <c r="K54" s="3">
         <v>16095200</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1900,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1913,170 +2008,189 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3719900</v>
+        <v>9588800</v>
       </c>
       <c r="E57" s="3">
-        <v>13969200</v>
+        <v>3687100</v>
       </c>
       <c r="F57" s="3">
-        <v>2715600</v>
+        <v>8307600</v>
       </c>
       <c r="G57" s="3">
-        <v>2724700</v>
+        <v>2691600</v>
       </c>
       <c r="H57" s="3">
-        <v>2407800</v>
+        <v>2700700</v>
       </c>
       <c r="I57" s="3">
-        <v>6044200</v>
+        <v>2386500</v>
       </c>
       <c r="J57" s="3">
+        <v>5990900</v>
+      </c>
+      <c r="K57" s="3">
         <v>3573800</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>995200</v>
+        <v>2969600</v>
       </c>
       <c r="E58" s="3">
-        <v>606500</v>
+        <v>986400</v>
       </c>
       <c r="F58" s="3">
-        <v>444800</v>
+        <v>601200</v>
       </c>
       <c r="G58" s="3">
-        <v>430400</v>
+        <v>440800</v>
       </c>
       <c r="H58" s="3">
-        <v>696500</v>
+        <v>426600</v>
       </c>
       <c r="I58" s="3">
-        <v>242600</v>
+        <v>690400</v>
       </c>
       <c r="J58" s="3">
+        <v>240500</v>
+      </c>
+      <c r="K58" s="3">
         <v>391300</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8721900</v>
+        <v>17075400</v>
       </c>
       <c r="E59" s="3">
-        <v>7314600</v>
+        <v>8645000</v>
       </c>
       <c r="F59" s="3">
-        <v>5604600</v>
+        <v>12788500</v>
       </c>
       <c r="G59" s="3">
-        <v>5874600</v>
+        <v>5555200</v>
       </c>
       <c r="H59" s="3">
-        <v>5719400</v>
+        <v>5822800</v>
       </c>
       <c r="I59" s="3">
-        <v>1359100</v>
+        <v>5669000</v>
       </c>
       <c r="J59" s="3">
+        <v>1347100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1412600</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>13437000</v>
+        <v>15318500</v>
       </c>
       <c r="E60" s="3">
-        <v>11198800</v>
+        <v>13318500</v>
       </c>
       <c r="F60" s="3">
-        <v>8765000</v>
+        <v>11100100</v>
       </c>
       <c r="G60" s="3">
-        <v>9029700</v>
+        <v>8687700</v>
       </c>
       <c r="H60" s="3">
-        <v>8823700</v>
+        <v>8950100</v>
       </c>
       <c r="I60" s="3">
-        <v>4062900</v>
+        <v>8745900</v>
       </c>
       <c r="J60" s="3">
+        <v>4027100</v>
+      </c>
+      <c r="K60" s="3">
         <v>4090300</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>2333400</v>
+        <v>7940400</v>
       </c>
       <c r="E61" s="3">
-        <v>2659500</v>
+        <v>2312800</v>
       </c>
       <c r="F61" s="3">
-        <v>3092500</v>
+        <v>2636000</v>
       </c>
       <c r="G61" s="3">
-        <v>3370300</v>
+        <v>3065300</v>
       </c>
       <c r="H61" s="3">
-        <v>2934700</v>
+        <v>3340600</v>
       </c>
       <c r="I61" s="3">
+        <v>2908800</v>
+      </c>
+      <c r="J61" s="3">
+        <v>3383300</v>
+      </c>
+      <c r="K61" s="3">
         <v>3413400</v>
       </c>
-      <c r="J61" s="3">
-        <v>3413400</v>
-      </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3259500</v>
+        <v>5459500</v>
       </c>
       <c r="E62" s="3">
-        <v>3980800</v>
+        <v>3230700</v>
       </c>
       <c r="F62" s="3">
-        <v>1973400</v>
+        <v>3945700</v>
       </c>
       <c r="G62" s="3">
-        <v>1944700</v>
+        <v>1956000</v>
       </c>
       <c r="H62" s="3">
-        <v>1982600</v>
+        <v>1927600</v>
       </c>
       <c r="I62" s="3">
-        <v>1693000</v>
+        <v>1965100</v>
       </c>
       <c r="J62" s="3">
+        <v>1678100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1129500</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2101,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2128,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2155,36 +2275,42 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19029900</v>
+        <v>26152300</v>
       </c>
       <c r="E66" s="3">
-        <v>16859500</v>
+        <v>18862100</v>
       </c>
       <c r="F66" s="3">
-        <v>13836100</v>
+        <v>16710900</v>
       </c>
       <c r="G66" s="3">
-        <v>14344800</v>
+        <v>13714100</v>
       </c>
       <c r="H66" s="3">
-        <v>13743500</v>
+        <v>14218300</v>
       </c>
       <c r="I66" s="3">
-        <v>8945000</v>
+        <v>13622300</v>
       </c>
       <c r="J66" s="3">
+        <v>8866100</v>
+      </c>
+      <c r="K66" s="3">
         <v>8633200</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2196,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2222,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2249,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2276,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2303,36 +2439,42 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>6586800</v>
+        <v>7128600</v>
       </c>
       <c r="E72" s="3">
-        <v>6067700</v>
+        <v>6528700</v>
       </c>
       <c r="F72" s="3">
-        <v>5320300</v>
+        <v>6014200</v>
       </c>
       <c r="G72" s="3">
-        <v>4921200</v>
+        <v>5273400</v>
       </c>
       <c r="H72" s="3">
-        <v>5532900</v>
+        <v>4877800</v>
       </c>
       <c r="I72" s="3">
-        <v>4519400</v>
+        <v>5484100</v>
       </c>
       <c r="J72" s="3">
+        <v>4479600</v>
+      </c>
+      <c r="K72" s="3">
         <v>4771200</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2357,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2384,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2411,36 +2559,42 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>9666200</v>
+        <v>10060600</v>
       </c>
       <c r="E76" s="3">
-        <v>8963200</v>
+        <v>9581000</v>
       </c>
       <c r="F76" s="3">
-        <v>8301900</v>
+        <v>8884200</v>
       </c>
       <c r="G76" s="3">
-        <v>7224600</v>
+        <v>8228700</v>
       </c>
       <c r="H76" s="3">
-        <v>7829800</v>
+        <v>7160900</v>
       </c>
       <c r="I76" s="3">
-        <v>7613300</v>
+        <v>7760700</v>
       </c>
       <c r="J76" s="3">
+        <v>7546100</v>
+      </c>
+      <c r="K76" s="3">
         <v>7462000</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2465,68 +2619,77 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43533</v>
+      </c>
+      <c r="E80" s="2">
         <v>43169</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42805</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42441</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42077</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>41713</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41349</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>40985</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>379600</v>
+        <v>217200</v>
       </c>
       <c r="E81" s="3">
-        <v>468200</v>
+        <v>376200</v>
       </c>
       <c r="F81" s="3">
-        <v>598700</v>
+        <v>464100</v>
       </c>
       <c r="G81" s="3">
-        <v>-216500</v>
+        <v>593400</v>
       </c>
       <c r="H81" s="3">
-        <v>933900</v>
+        <v>-214600</v>
       </c>
       <c r="I81" s="3">
-        <v>785200</v>
+        <v>925700</v>
       </c>
       <c r="J81" s="3">
+        <v>778300</v>
+      </c>
+      <c r="K81" s="3">
         <v>780000</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2538,35 +2701,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>953500</v>
+        <v>1631500</v>
       </c>
       <c r="E83" s="3">
-        <v>819100</v>
+        <v>945000</v>
       </c>
       <c r="F83" s="3">
-        <v>761700</v>
+        <v>811900</v>
       </c>
       <c r="G83" s="3">
-        <v>755200</v>
+        <v>755000</v>
       </c>
       <c r="H83" s="3">
-        <v>718700</v>
+        <v>748500</v>
       </c>
       <c r="I83" s="3">
-        <v>674300</v>
+        <v>712300</v>
       </c>
       <c r="J83" s="3">
+        <v>668400</v>
+      </c>
+      <c r="K83" s="3">
         <v>650900</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2591,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2618,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2645,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2672,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2699,36 +2878,42 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1780400</v>
+        <v>1348400</v>
       </c>
       <c r="E89" s="3">
-        <v>1503900</v>
+        <v>1764700</v>
       </c>
       <c r="F89" s="3">
-        <v>511300</v>
+        <v>1490600</v>
       </c>
       <c r="G89" s="3">
-        <v>1188200</v>
+        <v>506800</v>
       </c>
       <c r="H89" s="3">
-        <v>1224700</v>
+        <v>1177700</v>
       </c>
       <c r="I89" s="3">
-        <v>1279500</v>
+        <v>1213900</v>
       </c>
       <c r="J89" s="3">
+        <v>1268200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1391700</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2740,35 +2925,39 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-731700</v>
+        <v>-612800</v>
       </c>
       <c r="E91" s="3">
-        <v>-826900</v>
+        <v>-725300</v>
       </c>
       <c r="F91" s="3">
-        <v>-842600</v>
+        <v>-819600</v>
       </c>
       <c r="G91" s="3">
-        <v>-1240400</v>
+        <v>-835200</v>
       </c>
       <c r="H91" s="3">
-        <v>-1194700</v>
+        <v>-1229500</v>
       </c>
       <c r="I91" s="3">
-        <v>-1391700</v>
+        <v>-1184200</v>
       </c>
       <c r="J91" s="3">
+        <v>-1379400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1600400</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2793,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2820,36 +3012,42 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-613000</v>
+        <v>-621800</v>
       </c>
       <c r="E94" s="3">
-        <v>-978200</v>
+        <v>-607600</v>
       </c>
       <c r="F94" s="3">
-        <v>-521700</v>
+        <v>-969600</v>
       </c>
       <c r="G94" s="3">
-        <v>-1173900</v>
+        <v>-517100</v>
       </c>
       <c r="H94" s="3">
-        <v>555600</v>
+        <v>-1163500</v>
       </c>
       <c r="I94" s="3">
-        <v>-1124300</v>
+        <v>550700</v>
       </c>
       <c r="J94" s="3">
+        <v>-1114400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1151700</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2861,35 +3059,39 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-306500</v>
+        <v>-319300</v>
       </c>
       <c r="E96" s="3">
-        <v>-330000</v>
+        <v>-303800</v>
       </c>
       <c r="F96" s="3">
-        <v>-310400</v>
+        <v>-327100</v>
       </c>
       <c r="G96" s="3">
-        <v>-430400</v>
+        <v>-307700</v>
       </c>
       <c r="H96" s="3">
-        <v>-417400</v>
+        <v>-426600</v>
       </c>
       <c r="I96" s="3">
-        <v>-401700</v>
+        <v>-413700</v>
       </c>
       <c r="J96" s="3">
+        <v>-398200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-371700</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2914,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2941,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2968,36 +3176,42 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-318300</v>
+        <v>-1512600</v>
       </c>
       <c r="E100" s="3">
-        <v>-607800</v>
+        <v>-315400</v>
       </c>
       <c r="F100" s="3">
-        <v>-167000</v>
+        <v>-602400</v>
       </c>
       <c r="G100" s="3">
-        <v>-409600</v>
+        <v>-165500</v>
       </c>
       <c r="H100" s="3">
-        <v>-378200</v>
+        <v>-405900</v>
       </c>
       <c r="I100" s="3">
-        <v>-461700</v>
+        <v>-374900</v>
       </c>
       <c r="J100" s="3">
+        <v>-457700</v>
+      </c>
+      <c r="K100" s="3">
         <v>71700</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3022,34 +3236,40 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>849100</v>
+        <v>-786000</v>
       </c>
       <c r="E102" s="3">
-        <v>-82200</v>
+        <v>841600</v>
       </c>
       <c r="F102" s="3">
-        <v>-177400</v>
+        <v>-81400</v>
       </c>
       <c r="G102" s="3">
-        <v>-395200</v>
+        <v>-175800</v>
       </c>
       <c r="H102" s="3">
-        <v>1402100</v>
+        <v>-391700</v>
       </c>
       <c r="I102" s="3">
-        <v>-306500</v>
+        <v>1389800</v>
       </c>
       <c r="J102" s="3">
+        <v>-303800</v>
+      </c>
+      <c r="K102" s="3">
         <v>311700</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
